--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,124 +40,115 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
 </sst>
 </file>
@@ -515,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -634,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -684,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,31 +693,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7402597402597403</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -784,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4285714285714285</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>425</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,219 +843,123 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L8">
+        <v>69</v>
+      </c>
+      <c r="M8">
+        <v>69</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L9">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <v>46</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.775</v>
+      </c>
+      <c r="L11">
+        <v>93</v>
+      </c>
+      <c r="M11">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L8">
-        <v>46</v>
-      </c>
-      <c r="M8">
-        <v>46</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C9">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>161</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2125</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>63</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L11">
-        <v>41</v>
-      </c>
-      <c r="M11">
-        <v>41</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.765625</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,21 +971,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,21 +997,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.70625</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,21 +1049,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.62</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5789473684210527</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5454545454545454</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5305164319248826</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5277777777777778</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L26">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4883720930232558</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4021739130434783</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,7 +1465,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,87 +58,81 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -149,6 +140,9 @@
   </si>
   <si>
     <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -725,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6267123287671232</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C6">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>109</v>
+        <v>422</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1763565891472868</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,69 +787,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>425</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L7">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>98</v>
-      </c>
-      <c r="M7">
-        <v>98</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>156</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,21 +837,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,21 +863,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,21 +889,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -945,21 +915,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.765625</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -971,21 +941,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -997,21 +967,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7253521126760564</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1023,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.70625</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1049,21 +1019,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7037037037037037</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1075,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6981132075471698</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1101,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.62</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1127,47 +1097,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6111111111111112</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L19">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>22</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6031746031746031</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1179,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1205,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1231,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.574468085106383</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1257,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5091383812010444</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L24">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="M24">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1283,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1309,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L26">
         <v>38</v>
       </c>
-      <c r="K26">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="L26">
-        <v>160</v>
-      </c>
       <c r="M26">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1335,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>180</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1361,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4203389830508474</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L28">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1387,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>171</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.410958904109589</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1413,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3717948717948718</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1439,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3221757322175732</v>
+        <v>0.296875</v>
       </c>
       <c r="L31">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1465,33 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -58,91 +61,103 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -500,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6027397260273972</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1821705426356589</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>422</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1481481481481481</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,21 +826,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.164021164021164</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>158</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -889,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -915,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7264150943396226</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -993,47 +1032,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L15">
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>94</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>26</v>
-      </c>
-      <c r="K15">
-        <v>0.7253521126760564</v>
-      </c>
-      <c r="L15">
-        <v>103</v>
-      </c>
-      <c r="M15">
-        <v>103</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1045,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1071,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.7375</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6507936507936508</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1123,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1149,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1175,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5013054830287206</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1227,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.4588235294117647</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1253,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4383561643835616</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1279,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4269662921348314</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1305,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4101694915254237</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L27">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.358974358974359</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.3389121338912134</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3384615384615385</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1409,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.296875</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1435,7 +1474,111 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.3692307692307693</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.359375</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3263598326359833</v>
+      </c>
+      <c r="L35">
+        <v>78</v>
+      </c>
+      <c r="M35">
+        <v>78</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
